--- a/Data_Cleansing/TotalCostUSD_anomaly_report/xlsx/correlations/TotalCostUSD corr.xlsx
+++ b/Data_Cleansing/TotalCostUSD_anomaly_report/xlsx/correlations/TotalCostUSD corr.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9634370742275994</v>
+        <v>0.9629267958503075</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5589222389613503</v>
+        <v>0.5591697583002636</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3709700600831845</v>
+        <v>0.370546755582111</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3090615942070289</v>
+        <v>0.3088672540193937</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3008287275332664</v>
+        <v>0.300619847414772</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2809006470044332</v>
+        <v>0.2802784293054597</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2301012274811087</v>
+        <v>0.2298757655014836</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2226397743106835</v>
+        <v>0.2224030836246051</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2165977903926507</v>
+        <v>0.216197946487672</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2165882527274408</v>
+        <v>0.2161884186424988</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2043185242990569</v>
+        <v>0.2014723295016644</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1513234922482688</v>
+        <v>0.1511022666694448</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1417495824792565</v>
+        <v>0.1420171801226196</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1360161865916565</v>
+        <v>0.1356607082255323</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1349496808408691</v>
+        <v>0.1349846452053835</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.125741006342303</v>
+        <v>0.1282152512748291</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1182661985890934</v>
+        <v>0.1180404467994685</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.107327218371119</v>
+        <v>0.1070674344479487</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1066783343385413</v>
+        <v>0.1069457022793389</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07313264565743591</v>
+        <v>0.07678596860378226</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06484686211321018</v>
+        <v>0.06357753251765091</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02310756961250843</v>
+        <v>0.02305481729161084</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01712425842721271</v>
+        <v>0.0180232976229991</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01694097910607316</v>
+        <v>0.01702171594838416</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.002225562477620045</v>
+        <v>-0.001863460770488235</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.01321163840857077</v>
+        <v>-0.01252968688804552</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.01476140828062788</v>
+        <v>-0.01485834731824891</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.02771595658672546</v>
+        <v>-0.02848362598149726</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.04963679032121836</v>
+        <v>-0.04949223180210636</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.0582657197020427</v>
+        <v>-0.06022912894963846</v>
       </c>
     </row>
     <row r="33">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.08318267866881396</v>
+        <v>-0.08341217986964615</v>
       </c>
     </row>
     <row r="34">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0866529588193225</v>
+        <v>-0.0867289365327846</v>
       </c>
     </row>
     <row r="35">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1470320632250807</v>
+        <v>-0.1467050293738392</v>
       </c>
     </row>
     <row r="36">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1668024982420463</v>
+        <v>-0.1677276334664617</v>
       </c>
     </row>
     <row r="37">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1711158535224747</v>
+        <v>-0.1712049478930562</v>
       </c>
     </row>
     <row r="38">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.2473161263394244</v>
+        <v>-0.2471528296385541</v>
       </c>
     </row>
     <row r="39">
